--- a/biology/Microbiologie/Propionibacteriales/Propionibacteriales.xlsx
+++ b/biology/Microbiologie/Propionibacteriales/Propionibacteriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Propionibacteriales sont un ordre de bactéries filamenteuses à Gram positif de la classe des Actinomycetes. Son nom provient de Propionibacterium qui est le genre type de cet ordre (LPSN  (28 octobre 2023)[1]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Propionibacteriales sont un ordre de bactéries filamenteuses à Gram positif de la classe des Actinomycetes. Son nom provient de Propionibacterium qui est le genre type de cet ordre (LPSN  (28 octobre 2023)).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre est proposé en 1940 par Sheila Patrick et Andrew McDowell[2], et est validé en 2015 par le Comité international de systématique des procaryotes et publié dans l'IJSEM[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est proposé en 1940 par Sheila Patrick et Andrew McDowell, et est validé en 2015 par le Comité international de systématique des procaryotes et publié dans l'IJSEM.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 2023, d'après LPSN  (28 octobre 2023)[1], cet ordre comporte 4 familles, toutes validement publiées : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 2023, d'après LPSN  (28 octobre 2023), cet ordre comporte 4 familles, toutes validement publiées : 
 Actinopolymorphaceae, Nouioui et al., 2018
 Kribbellaceae, Nouioui et al., 2018
 Nocardioidaceae, Nesterenko et al., 1990
